--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,17 +253,21 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Swallowing Screening Timing Category Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Extension capturing the **timing category** of swallowing screening relative to stroke onset/admission.
+**Primary use-case**
+- KPI reporting: “swallowing screening performed within 4 hours”.
+**When to use**
+- When you cannot reliably store an exact timestamp (or want an additional categorical indicator even if a timestamp exists).
+**How it complements base elements**
+- `Procedure.occurrence[x]` stores the exact time when available.
+- This extension stores a categorical bucket to support standardized reporting.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>n/a,N/A</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -931,15 +935,15 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -950,25 +954,25 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1019,30 +1023,30 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1065,13 +1069,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1110,19 +1114,19 @@
         <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1142,10 +1146,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1153,10 +1157,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1168,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1227,13 +1231,13 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
@@ -1242,15 +1246,15 @@
         <v>20</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1258,10 +1262,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1273,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1306,11 +1310,11 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -1328,22 +1332,22 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AK6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,8 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Extension capturing the **timing category** of swallowing screening relative to stroke onset/admission.
-**Primary use-case**
-- KPI reporting: “swallowing screening performed within 4 hours”.
 **When to use**
 - When you cannot reliably store an exact timestamp (or want an additional categorical indicator even if a timestamp exists).
 **How it complements base elements**

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Swallowing Screening Timing Category</t>
+    <t>Swallowing Screening Timing Category Extension</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,181 +79,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Temporal category relative to stroke onset in which the swallowing screening was performed.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>5.0.0</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>complex-type</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Derivation</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>Context</t>
-  </si>
-  <si>
-    <t>element:Procedure</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>Swallowing Screening Timing Category Extension</t>
   </si>
   <si>
     <t xml:space="preserve"> Extension capturing the **timing category** of swallowing screening relative to stroke onset/admission.
@@ -262,6 +87,175 @@
 **How it complements base elements**
 - `Procedure.occurrence[x]` stores the exact time when available.
 - This extension stores a categorical bucket to support standardized reporting.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>5.0.0</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>complex-type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>element:Procedure</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -864,10 +858,10 @@
         <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -930,7 +924,7 @@
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>20</v>
@@ -938,10 +932,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -952,25 +946,25 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1021,30 +1015,30 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1067,13 +1061,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1112,19 +1106,19 @@
         <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1136,7 +1130,7 @@
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1144,10 +1138,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1155,10 +1149,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1170,16 +1164,16 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1229,13 +1223,13 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
@@ -1244,15 +1238,15 @@
         <v>20</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1260,10 +1254,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1275,13 +1269,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1308,11 +1302,11 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -1330,22 +1324,22 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
+++ b/StructureDefinition-swallowing-screening-timing-category-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
